--- a/docs/shrcore/shr-core-ServiceBasedOn-model.xlsx
+++ b/docs/shrcore/shr-core-ServiceBasedOn-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="58">
   <si>
     <t>Path</t>
   </si>
@@ -137,17 +137,63 @@
     <t>The original or initiating plan, proposal, or request.</t>
   </si>
   <si>
-    <t>shr-core-ServiceBasedOn-model.value</t>
+    <t>shr-core-ServiceBasedOn-model.value[x]</t>
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model], CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Choice of types representing the original or initiating plan, proposal, or request.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>shr-core-ServiceBasedOn-model.valueShr-core-ProcedureRequest-model</t>
+  </si>
+  <si>
+    <t>ProcedureRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ProcedureRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>A request for a procedure to be performed. May be a proposal or an order.</t>
+  </si>
+  <si>
+    <t>shr-core-ServiceBasedOn-model.valueShr-core-ReferralRequest-model</t>
+  </si>
+  <si>
+    <t>ReferralRequest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReferralRequest-model]]}
+</t>
+  </si>
+  <si>
+    <t>Used to record and send details about a request for referral service or transfer of a patient to the care of another provider or provider organization.</t>
+  </si>
+  <si>
+    <t>shr-core-ServiceBasedOn-model.valueShr-core-ServiceRequest-model</t>
+  </si>
+  <si>
+    <t>ServiceRequest</t>
   </si>
   <si>
     <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ServiceRequest-model]]}
 </t>
   </si>
   <si>
-    <t>DomainResource representing the original or initiating plan, proposal, or request.</t>
+    <t>A record of a request for service such as diagnostic investigations, treatments, or operations to be performed.</t>
   </si>
 </sst>
 </file>
@@ -296,7 +342,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ3"/>
+  <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -305,8 +351,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="35.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="66.328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="17.58984375" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="7.6796875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
@@ -315,7 +361,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="73.80859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="132.9375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -335,7 +381,7 @@
     <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="35.19140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="31" max="31" width="37.49609375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
     <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
     <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
@@ -614,16 +660,14 @@
         <v>36</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="AB3" s="2"/>
       <c r="AC3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>40</v>
@@ -641,8 +685,305 @@
         <v>36</v>
       </c>
     </row>
+    <row r="4" hidden="true">
+      <c r="A4" t="s" s="2">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>47</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J4" t="s" s="2">
+        <v>48</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P4" s="2"/>
+      <c r="Q4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE4" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG4" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI4" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" hidden="true">
+      <c r="A5" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="K5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>53</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P5" s="2"/>
+      <c r="Q5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG5" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI5" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" hidden="true">
+      <c r="A6" t="s" s="2">
+        <v>54</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J6" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P6" s="2"/>
+      <c r="Q6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI3">
+  <autoFilter ref="A1:AI6">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -652,7 +993,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI2">
+  <conditionalFormatting sqref="A2:AI5">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
